--- a/branches/dev/ValueSet-FocusPop.xlsx
+++ b/branches/dev/ValueSet-FocusPop.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T18:04:50+00:00</t>
+    <t>2023-06-22T13:21:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/dev/ValueSet-FocusPop.xlsx
+++ b/branches/dev/ValueSet-FocusPop.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T12:14:36+00:00</t>
+    <t>2023-07-02T12:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
